--- a/data/reasons_for_moving_draft.xlsx
+++ b/data/reasons_for_moving_draft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\minh\Swinburne\Data Visualization\Web\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DEE9A9-F32F-419E-BED8-5D030E2A4005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BA7E99-D083-4BA1-AED7-7C14815D89D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{058B5982-C015-4F85-A4BD-AB499A8ED511}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>Mobility Period</t>
   </si>
@@ -626,7 +626,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -694,11 +694,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -715,13 +726,16 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1036,10 +1050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5085F1D9-B4EB-4216-BD0F-73A8777A8BD8}">
-  <dimension ref="A1:AA11"/>
+  <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="S2" zoomScale="94" workbookViewId="0">
+      <selection activeCell="AB7" sqref="AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1048,44 +1062,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6" t="s">
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6" t="s">
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
     </row>
     <row r="2" spans="1:27" ht="118.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1149,756 +1163,840 @@
     </row>
     <row r="3" spans="1:27" ht="27" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="6">
+        <v>100</v>
+      </c>
+      <c r="C3" s="6">
+        <v>6.1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>10.6</v>
+      </c>
+      <c r="E3" s="6">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F3" s="6">
+        <v>11.4</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="H3" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="K3" s="6">
+        <v>7.8</v>
+      </c>
+      <c r="L3" s="6">
+        <v>14.6</v>
+      </c>
+      <c r="M3" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="N3" s="6">
+        <v>6.6</v>
+      </c>
+      <c r="O3" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="P3" s="6">
+        <v>6.3</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="R3" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="S3" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="T3" s="6">
+        <v>2</v>
+      </c>
+      <c r="U3" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="V3" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="W3" s="9">
+        <v>25.4</v>
+      </c>
+      <c r="X3" s="9">
+        <v>19.7</v>
+      </c>
+      <c r="Y3" s="9">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="9">
+        <v>14.5</v>
+      </c>
+      <c r="AA3" s="7">
+        <f>SUM(W3:Z3)</f>
+        <v>99.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="27" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B4" s="6">
         <v>100</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C4" s="6">
         <v>5</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D4" s="6">
         <v>11.4</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E4" s="6">
         <v>10.4</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F4" s="6">
         <v>12.1</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G4" s="6">
         <v>0.9</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H4" s="6">
         <v>6.2</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I4" s="6">
         <v>1</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J4" s="6">
         <v>1.2</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K4" s="6">
         <v>6.3</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L4" s="6">
         <v>17</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M4" s="6">
         <v>3</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N4" s="6">
         <v>6.7</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O4" s="6">
         <v>0.7</v>
       </c>
-      <c r="P3" s="7">
-        <v>6.7</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>0</v>
-      </c>
-      <c r="R3" s="7">
-        <v>2.6</v>
-      </c>
-      <c r="S3" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="T3" s="7">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="U3" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="V3" s="7">
-        <v>5.4</v>
-      </c>
-      <c r="W3" s="8">
-        <v>26.799999999999997</v>
-      </c>
-      <c r="X3" s="8">
-        <v>21.4</v>
-      </c>
-      <c r="Y3" s="8">
-        <v>40.400000000000006</v>
-      </c>
-      <c r="Z3" s="8">
-        <v>11.6</v>
-      </c>
-      <c r="AA3" s="8">
-        <f>SUM(W3:Z3)</f>
-        <v>100.19999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="27" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="7">
-        <v>100</v>
-      </c>
-      <c r="C4" s="7">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D4" s="7">
-        <v>12.6</v>
-      </c>
-      <c r="E4" s="7">
-        <v>11.1</v>
-      </c>
-      <c r="F4" s="7">
-        <v>10.3</v>
-      </c>
-      <c r="G4" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="H4" s="7">
-        <v>5.6</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J4" s="7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K4" s="7">
-        <v>7.3</v>
-      </c>
-      <c r="L4" s="7">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="M4" s="7">
-        <v>2.6</v>
-      </c>
-      <c r="N4" s="7">
-        <v>7.9</v>
-      </c>
-      <c r="O4" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="P4" s="7">
+      <c r="P4" s="6">
         <v>6.7</v>
       </c>
       <c r="Q4" s="4">
         <v>0</v>
       </c>
-      <c r="R4" s="7">
-        <v>2.8</v>
-      </c>
-      <c r="S4" s="7">
+      <c r="R4" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="S4" s="6">
         <v>0.7</v>
       </c>
-      <c r="T4" s="7">
-        <v>1.8</v>
-      </c>
-      <c r="U4" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="V4" s="7">
-        <v>5</v>
-      </c>
-      <c r="W4" s="8">
-        <v>28.1</v>
-      </c>
-      <c r="X4" s="8">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="Y4" s="8">
-        <v>41.600000000000009</v>
-      </c>
-      <c r="Z4" s="8">
-        <v>10.8</v>
-      </c>
-      <c r="AA4" s="8">
-        <f t="shared" ref="AA4:AA11" si="0">SUM(W4:Z4)</f>
-        <v>100.10000000000001</v>
+      <c r="T4" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="U4" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="V4" s="6">
+        <v>5.4</v>
+      </c>
+      <c r="W4" s="7">
+        <v>26.799999999999997</v>
+      </c>
+      <c r="X4" s="7">
+        <v>21.4</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>40.400000000000006</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>11.6</v>
+      </c>
+      <c r="AA4" s="7">
+        <f>SUM(W4:Z4)</f>
+        <v>100.19999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="27" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="7">
+        <v>22</v>
+      </c>
+      <c r="B5" s="6">
         <v>100</v>
       </c>
-      <c r="C5" s="7">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D5" s="7">
-        <v>11.5</v>
-      </c>
-      <c r="E5" s="7">
-        <v>11.3</v>
-      </c>
-      <c r="F5" s="7">
-        <v>9.9</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1.3</v>
-      </c>
-      <c r="H5" s="7">
-        <v>5.5</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="K5" s="7">
+      <c r="C5" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D5" s="6">
+        <v>12.6</v>
+      </c>
+      <c r="E5" s="6">
+        <v>11.1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>10.3</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H5" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J5" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K5" s="6">
         <v>7.3</v>
       </c>
-      <c r="L5" s="7">
-        <v>16</v>
-      </c>
-      <c r="M5" s="7">
-        <v>2.8</v>
-      </c>
-      <c r="N5" s="7">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="O5" s="7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P5" s="7">
-        <v>7.6</v>
+      <c r="L5" s="6">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="M5" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="N5" s="6">
+        <v>7.9</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="P5" s="6">
+        <v>6.7</v>
       </c>
       <c r="Q5" s="4">
         <v>0</v>
       </c>
-      <c r="R5" s="7">
+      <c r="R5" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="S5" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="T5" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="U5" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="V5" s="6">
+        <v>5</v>
+      </c>
+      <c r="W5" s="7">
+        <v>28.1</v>
+      </c>
+      <c r="X5" s="7">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>41.600000000000009</v>
+      </c>
+      <c r="Z5" s="7">
+        <v>10.8</v>
+      </c>
+      <c r="AA5" s="7">
+        <f t="shared" ref="AA5:AA12" si="0">SUM(W5:Z5)</f>
+        <v>100.10000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="27" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="6">
+        <v>100</v>
+      </c>
+      <c r="C6" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D6" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="E6" s="6">
+        <v>11.3</v>
+      </c>
+      <c r="F6" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="H6" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="K6" s="6">
+        <v>7.3</v>
+      </c>
+      <c r="L6" s="6">
+        <v>16</v>
+      </c>
+      <c r="M6" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="N6" s="6">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="O6" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P6" s="6">
+        <v>7.6</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>0</v>
+      </c>
+      <c r="R6" s="6">
         <v>3</v>
       </c>
-      <c r="S5" s="7">
+      <c r="S6" s="6">
         <v>0.5</v>
       </c>
-      <c r="T5" s="7">
+      <c r="T6" s="6">
         <v>1.9</v>
       </c>
-      <c r="U5" s="7">
+      <c r="U6" s="6">
         <v>0.3</v>
       </c>
-      <c r="V5" s="7">
+      <c r="V6" s="6">
         <v>5</v>
       </c>
-      <c r="W5" s="8">
+      <c r="W6" s="7">
         <v>27.900000000000002</v>
       </c>
-      <c r="X5" s="8">
+      <c r="X6" s="7">
         <v>18.400000000000002</v>
       </c>
-      <c r="Y5" s="8">
+      <c r="Y6" s="7">
         <v>43.100000000000009</v>
       </c>
-      <c r="Z5" s="8">
+      <c r="Z6" s="7">
         <v>10.7</v>
       </c>
-      <c r="AA5" s="8">
+      <c r="AA6" s="7">
         <f t="shared" si="0"/>
         <v>100.10000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="27" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:27" ht="27" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B7" s="6">
         <v>100</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C7" s="6">
         <v>4.8</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D7" s="6">
         <v>12.2</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E7" s="6">
         <v>10.5</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F7" s="6">
         <v>10.8</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G7" s="6">
         <v>1.5</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H7" s="6">
         <v>6</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I7" s="6">
         <v>0.7</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J7" s="6">
         <v>1.2</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K7" s="6">
         <v>5.9</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L7" s="6">
         <v>17.399999999999999</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M7" s="6">
         <v>3.1</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N7" s="6">
         <v>8.1999999999999993</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O7" s="6">
         <v>0.9</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P7" s="6">
         <v>6.7</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q7" s="4">
         <v>0</v>
       </c>
-      <c r="R6" s="7">
+      <c r="R7" s="6">
         <v>3.2</v>
       </c>
-      <c r="S6" s="7">
+      <c r="S7" s="6">
         <v>0.8</v>
       </c>
-      <c r="T6" s="7">
+      <c r="T7" s="6">
         <v>1.8</v>
       </c>
-      <c r="U6" s="7">
+      <c r="U7" s="6">
         <v>0.1</v>
       </c>
-      <c r="V6" s="7">
+      <c r="V7" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="W6" s="8">
+      <c r="W7" s="7">
         <v>27.5</v>
       </c>
-      <c r="X6" s="8">
+      <c r="X7" s="7">
         <v>20.2</v>
       </c>
-      <c r="Y6" s="8">
+      <c r="Y7" s="7">
         <v>42.199999999999996</v>
       </c>
-      <c r="Z6" s="8">
+      <c r="Z7" s="7">
         <v>10.3</v>
       </c>
-      <c r="AA6" s="8">
+      <c r="AA7" s="7">
         <f t="shared" si="0"/>
         <v>100.2</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="27" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:27" ht="27" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B8" s="6">
         <v>100</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C8" s="6">
         <v>5.8</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D8" s="6">
         <v>11</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E8" s="6">
         <v>14.3</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F8" s="6">
         <v>10.6</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G8" s="6">
         <v>1.6</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H8" s="6">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I8" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J8" s="6">
         <v>2.2999999999999998</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K8" s="6">
         <v>5.3</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L8" s="6">
         <v>15.3</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M8" s="6">
         <v>2.9</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N8" s="6">
         <v>7.5</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O8" s="6">
         <v>0.7</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P8" s="6">
         <v>14.4</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q8" s="4">
         <v>0</v>
       </c>
-      <c r="R7" s="7">
+      <c r="R8" s="6">
         <v>0.3</v>
       </c>
-      <c r="S7" s="7">
+      <c r="S8" s="6">
         <v>0.2</v>
       </c>
-      <c r="T7" s="7">
+      <c r="T8" s="6">
         <v>0.3</v>
       </c>
-      <c r="U7" s="4" t="s">
+      <c r="U8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="V7" s="7">
+      <c r="V8" s="6">
         <v>1.5</v>
       </c>
-      <c r="W7" s="8">
+      <c r="W8" s="7">
         <v>31.1</v>
       </c>
-      <c r="X7" s="8">
+      <c r="X8" s="7">
         <v>20.500000000000004</v>
       </c>
-      <c r="Y7" s="8">
+      <c r="Y8" s="7">
         <v>46.1</v>
       </c>
-      <c r="Z7" s="8">
+      <c r="Z8" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AA7" s="8">
+      <c r="AA8" s="7">
         <f t="shared" si="0"/>
         <v>100.00000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="27" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:27" ht="27" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B9" s="6">
         <v>100</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C9" s="6">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D9" s="6">
         <v>11.1</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E9" s="6">
         <v>13.4</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F9" s="6">
         <v>9.6999999999999993</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G9" s="6">
         <v>2.1</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H9" s="6">
         <v>6.2</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I9" s="6">
         <v>0.7</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J9" s="6">
         <v>2</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K9" s="6">
         <v>5.6</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L9" s="6">
         <v>15.8</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M9" s="6">
         <v>3</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N9" s="6">
         <v>9.4</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O9" s="6">
         <v>1.3</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P9" s="6">
         <v>12.8</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q9" s="4">
         <v>0</v>
       </c>
-      <c r="R8" s="7">
+      <c r="R9" s="6">
         <v>0.5</v>
       </c>
-      <c r="S8" s="7">
+      <c r="S9" s="6">
         <v>0.1</v>
       </c>
-      <c r="T8" s="7">
+      <c r="T9" s="6">
         <v>0.4</v>
       </c>
-      <c r="U8" s="7">
+      <c r="U9" s="6">
         <v>0</v>
       </c>
-      <c r="V8" s="7">
+      <c r="V9" s="6">
         <v>1</v>
       </c>
-      <c r="W8" s="8">
+      <c r="W9" s="7">
         <v>29.4</v>
       </c>
-      <c r="X8" s="8">
+      <c r="X9" s="7">
         <v>20.7</v>
       </c>
-      <c r="Y8" s="8">
+      <c r="Y9" s="7">
         <v>47.899999999999991</v>
       </c>
-      <c r="Z8" s="8">
+      <c r="Z9" s="7">
         <v>2</v>
       </c>
-      <c r="AA8" s="8">
+      <c r="AA9" s="7">
         <f t="shared" si="0"/>
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="27" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:27" ht="27" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B10" s="6">
         <v>100</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C10" s="6">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D10" s="6">
         <v>10.5</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E10" s="6">
         <v>14.8</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F10" s="6">
         <v>9</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G10" s="6">
         <v>2.1</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H10" s="6">
         <v>5.4</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I10" s="6">
         <v>0.7</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J10" s="6">
         <v>2.2999999999999998</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K10" s="6">
         <v>5.8</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L10" s="6">
         <v>14.8</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M10" s="6">
         <v>3.2</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N10" s="6">
         <v>8.3000000000000007</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O10" s="6">
         <v>1.8</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P10" s="6">
         <v>14</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q10" s="4">
         <v>0</v>
       </c>
-      <c r="R9" s="7">
+      <c r="R10" s="6">
         <v>0.6</v>
       </c>
-      <c r="S9" s="7">
+      <c r="S10" s="6">
         <v>0.1</v>
       </c>
-      <c r="T9" s="7">
+      <c r="T10" s="6">
         <v>0.4</v>
       </c>
-      <c r="U9" s="7">
+      <c r="U10" s="6">
         <v>0</v>
       </c>
-      <c r="V9" s="7">
+      <c r="V10" s="6">
         <v>1.3</v>
       </c>
-      <c r="W9" s="8">
+      <c r="W10" s="7">
         <v>30.4</v>
       </c>
-      <c r="X9" s="8">
+      <c r="X10" s="7">
         <v>19.5</v>
       </c>
-      <c r="Y9" s="8">
+      <c r="Y10" s="7">
         <v>47.9</v>
       </c>
-      <c r="Z9" s="8">
+      <c r="Z10" s="7">
         <v>2.4000000000000004</v>
       </c>
-      <c r="AA9" s="8">
+      <c r="AA10" s="7">
         <f t="shared" si="0"/>
         <v>100.2</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:27" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B11" s="6">
         <v>100</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C11" s="6">
         <v>6.3</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D11" s="6">
         <v>10.7</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E11" s="6">
         <v>12.3</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F11" s="6">
         <v>9.5</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G11" s="6">
         <v>1.8</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H11" s="6">
         <v>5.5</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I11" s="6">
         <v>0.5</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J11" s="6">
         <v>2.1</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K11" s="6">
         <v>4.7</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L11" s="6">
         <v>15.9</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M11" s="6">
         <v>3.4</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N11" s="6">
         <v>8.9</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O11" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P11" s="6">
         <v>14.4</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q11" s="4">
         <v>0</v>
       </c>
-      <c r="R10" s="7">
+      <c r="R11" s="6">
         <v>0.5</v>
       </c>
-      <c r="S10" s="7">
+      <c r="S11" s="6">
         <v>0</v>
       </c>
-      <c r="T10" s="7">
+      <c r="T11" s="6">
         <v>0.3</v>
       </c>
-      <c r="U10" s="7">
+      <c r="U11" s="6">
         <v>0.2</v>
       </c>
-      <c r="V10" s="7">
+      <c r="V11" s="6">
         <v>0.9</v>
       </c>
-      <c r="W10" s="8">
+      <c r="W11" s="7">
         <v>29.3</v>
       </c>
-      <c r="X10" s="8">
+      <c r="X11" s="7">
         <v>19.400000000000002</v>
       </c>
-      <c r="Y10" s="8">
+      <c r="Y11" s="7">
         <v>49.5</v>
       </c>
-      <c r="Z10" s="8">
+      <c r="Z11" s="7">
         <v>1.9</v>
       </c>
-      <c r="AA10" s="8">
+      <c r="AA11" s="7">
         <f t="shared" si="0"/>
         <v>100.10000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="27" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:27" ht="27" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B12" s="6">
         <v>100</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C12" s="6">
         <v>5.5</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D12" s="6">
         <v>9.5</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E12" s="6">
         <v>12.8</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F12" s="6">
         <v>8</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G12" s="6">
         <v>2.6</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H12" s="6">
         <v>5.9</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I12" s="6">
         <v>0.3</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J12" s="6">
         <v>1.5</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K12" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L12" s="6">
         <v>16.2</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M12" s="6">
         <v>3.9</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N12" s="6">
         <v>10.5</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O12" s="6">
         <v>1.2</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P12" s="6">
         <v>8.6999999999999993</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q12" s="4">
         <v>0</v>
       </c>
-      <c r="R11" s="7">
+      <c r="R12" s="6">
         <v>2.6</v>
       </c>
-      <c r="S11" s="7">
+      <c r="S12" s="6">
         <v>0.4</v>
       </c>
-      <c r="T11" s="7">
+      <c r="T12" s="6">
         <v>1.6</v>
       </c>
-      <c r="U11" s="7">
+      <c r="U12" s="6">
         <v>0.1</v>
       </c>
-      <c r="V11" s="7">
+      <c r="V12" s="6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="W11" s="8">
+      <c r="W12" s="7">
         <v>27.8</v>
       </c>
-      <c r="X11" s="8">
+      <c r="X12" s="7">
         <v>18.3</v>
       </c>
-      <c r="Y11" s="8">
+      <c r="Y12" s="7">
         <v>44.900000000000006</v>
       </c>
-      <c r="Z11" s="8">
+      <c r="Z12" s="7">
         <v>8.7999999999999989</v>
       </c>
-      <c r="AA11" s="8">
+      <c r="AA12" s="7">
         <f t="shared" si="0"/>
         <v>99.8</v>
       </c>
@@ -1927,14 +2025,14 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
